--- a/衍射光栅.xlsx
+++ b/衍射光栅.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Repos\fuck-UPE\大物实验\数据处理-公式保护branch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Repos\fuck-UPE\大物实验\数据处理-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8D9E0D-B320-45E2-81C8-DE60071F26A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCA0991-8F44-4945-9B0F-E9D684007919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
   <si>
     <t>级数K</t>
   </si>
@@ -105,14 +105,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>为表示角度，本表格利用了自带的日期格式，看到值突然变为日期是输入正确的体现</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>请将度分秒数字以冒号隔开输入，如输入：“54:30:00”，回车，单元格自动显示为 54°30′00″,输入角度时请写全度分秒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>蓝色格子：书上或ppt上给定的数据，一般不需要改</t>
   </si>
   <si>
@@ -135,10 +127,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>红色格子：填入你的实验数据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Authored by Axolyz.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -147,15 +135,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Posted on https://github.com/Axolyz/fuck-university-physics-experiments.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Welcome for stars, issues &amp; contribution.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>「この幻想郷では常識に囚われてはいけないのですね！」</t>
+    <t>Posted on https://github.com/Axolyz/fuck-nku-physics-experiments.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色格子：填入你的实验数据，如本身自带数据请更改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请将度分秒数字以冒号(半角英文冒号!!)隔开输入，如输入：“54:30:00”，回车，单元格自动显示为 54°30′00″,输入角度时请写全度分秒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>为表示角度，本表格利用了自带的日期格式，看到值突然变为日期是输入正确的体现, 这可能是整个灌水仓库里技术力最高的一个地方了</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -167,7 +163,7 @@
     <numFmt numFmtId="176" formatCode="[h]\°mm\′ss\″"/>
     <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +188,15 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF39C5BB"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -254,7 +259,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -310,6 +315,9 @@
     </xf>
     <xf numFmtId="176" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -318,6 +326,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF39C5BB"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -594,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12:J12 F12:F13 F18:I18 K18 E18:E19 F22:I22 K22 E22:E23 B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -615,37 +628,37 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
+      <c r="A7" s="17" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>19</v>
+      <c r="A8" s="17" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -740,7 +753,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -952,7 +965,7 @@
     <row r="24" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>15</v>
@@ -967,28 +980,26 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
-        <v>32</v>
-      </c>
+      <c r="A32" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/衍射光栅.xlsx
+++ b/衍射光栅.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Repos\fuck-UPE\大物实验\数据处理-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCA0991-8F44-4945-9B0F-E9D684007919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7BF7B4-1E25-456C-8020-D1DAFF0F3FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
   <si>
     <t>级数K</t>
   </si>
@@ -124,18 +124,6 @@
   </si>
   <si>
     <t>衍射光栅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Authored by Axolyz.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Licensed by GPL v3.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Welcome for stars, issues &amp; contribution.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -608,7 +596,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -630,10 +618,13 @@
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -646,356 +637,336 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>30</v>
-      </c>
-    </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
+    <row r="13" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
         <v>546.1</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B13" s="5">
         <v>1</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D13" s="6">
         <v>2.4597222222222221</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E13" s="6">
         <v>3.25</v>
-      </c>
-      <c r="F12" s="16">
-        <f>E12-D12</f>
-        <v>0.79027777777777786</v>
-      </c>
-      <c r="G12" s="13">
-        <f>(F12+F13)/2</f>
-        <v>0.78750000000000053</v>
-      </c>
-      <c r="H12" s="13">
-        <f>G12/2</f>
-        <v>0.39375000000000027</v>
-      </c>
-      <c r="I12" s="14">
-        <f>(DAY(H12)*24+HOUR(H12)+MINUTE(H12)/60+SECOND(H12)/3600)*PI()/180</f>
-        <v>0.16493361431346412</v>
-      </c>
-      <c r="J12" s="15">
-        <f>A12/SIN(I12)</f>
-        <v>3326.0886082671418</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="6">
-        <v>9.9666666666666668</v>
-      </c>
-      <c r="E13" s="6">
-        <v>10.75138888888889</v>
       </c>
       <c r="F13" s="16">
         <f>E13-D13</f>
+        <v>0.79027777777777786</v>
+      </c>
+      <c r="G13" s="13">
+        <f>(F13+F14)/2</f>
+        <v>0.78750000000000053</v>
+      </c>
+      <c r="H13" s="13">
+        <f>G13/2</f>
+        <v>0.39375000000000027</v>
+      </c>
+      <c r="I13" s="14">
+        <f>(DAY(H13)*24+HOUR(H13)+MINUTE(H13)/60+SECOND(H13)/3600)*PI()/180</f>
+        <v>0.16493361431346412</v>
+      </c>
+      <c r="J13" s="15">
+        <f>A13/SIN(I13)</f>
+        <v>3326.0886082671418</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="6">
+        <v>9.9666666666666668</v>
+      </c>
+      <c r="E14" s="6">
+        <v>10.75138888888889</v>
+      </c>
+      <c r="F14" s="16">
+        <f>E14-D14</f>
         <v>0.78472222222222321</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+    <row r="18" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K18" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
+    <row r="19" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
         <v>2</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C19" s="6">
         <v>2.0173611111111112</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D19" s="6">
         <v>3.7048611111111112</v>
-      </c>
-      <c r="E18" s="16">
-        <f>D18-C18</f>
-        <v>1.6875</v>
-      </c>
-      <c r="F18" s="13">
-        <f>(E18+E19)/2</f>
-        <v>1.6902777777777782</v>
-      </c>
-      <c r="G18" s="13">
-        <f>F18/2</f>
-        <v>0.84513888888888911</v>
-      </c>
-      <c r="H18" s="14">
-        <f>(DAY(G18)*24+HOUR(G18)+MINUTE(G18)/60+SECOND(G18)/3600)*PI()/180</f>
-        <v>0.35401094994618321</v>
-      </c>
-      <c r="I18" s="14">
-        <f>J12*SIN(H18)/A18</f>
-        <v>576.51562171486523</v>
-      </c>
-      <c r="J18" s="10">
-        <v>577</v>
-      </c>
-      <c r="K18" s="14">
-        <f>ABS(J18-I18)/J18</f>
-        <v>8.39477097287291E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="6">
-        <v>9.5118055555555561</v>
-      </c>
-      <c r="D19" s="6">
-        <v>11.204861111111112</v>
       </c>
       <c r="E19" s="16">
         <f>D19-C19</f>
+        <v>1.6875</v>
+      </c>
+      <c r="F19" s="13">
+        <f>(E19+E20)/2</f>
+        <v>1.6902777777777782</v>
+      </c>
+      <c r="G19" s="13">
+        <f>F19/2</f>
+        <v>0.84513888888888911</v>
+      </c>
+      <c r="H19" s="14">
+        <f>(DAY(G19)*24+HOUR(G19)+MINUTE(G19)/60+SECOND(G19)/3600)*PI()/180</f>
+        <v>0.35401094994618321</v>
+      </c>
+      <c r="I19" s="14">
+        <f>J13*SIN(H19)/A19</f>
+        <v>576.51562171486523</v>
+      </c>
+      <c r="J19" s="10">
+        <v>577</v>
+      </c>
+      <c r="K19" s="14">
+        <f>ABS(J19-I19)/J19</f>
+        <v>8.39477097287291E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="6">
+        <v>9.5118055555555561</v>
+      </c>
+      <c r="D20" s="6">
+        <v>11.204861111111112</v>
+      </c>
+      <c r="E20" s="16">
+        <f>D20-C20</f>
         <v>1.6930555555555564</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-    </row>
-    <row r="20" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+    </row>
+    <row r="21" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+    <row r="22" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H22" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="J22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="K22" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9">
+    <row r="23" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="9">
         <v>2</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C23" s="6">
         <v>2.0083333333333333</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D23" s="6">
         <v>3.7034722222222225</v>
-      </c>
-      <c r="E22" s="16">
-        <f>D22-C22</f>
-        <v>1.6951388888888892</v>
-      </c>
-      <c r="F22" s="13">
-        <f>(E22+E23)/2</f>
-        <v>1.6930555555555553</v>
-      </c>
-      <c r="G22" s="13">
-        <f>F22/2</f>
-        <v>0.84652777777777766</v>
-      </c>
-      <c r="H22" s="14">
-        <f>(DAY(G22)*24+HOUR(G22)+MINUTE(G22)/60+SECOND(G22)/3600)*PI()/180</f>
-        <v>0.35459272636351458</v>
-      </c>
-      <c r="I22" s="14">
-        <f>J12*SIN(H22)/A22</f>
-        <v>577.42304796386918</v>
-      </c>
-      <c r="J22" s="10">
-        <v>579.1</v>
-      </c>
-      <c r="K22" s="14">
-        <f>ABS(J22-I22)/J22</f>
-        <v>2.8957900813863621E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="6">
-        <v>9.5104166666666661</v>
-      </c>
-      <c r="D23" s="6">
-        <v>11.201388888888888</v>
       </c>
       <c r="E23" s="16">
         <f>D23-C23</f>
+        <v>1.6951388888888892</v>
+      </c>
+      <c r="F23" s="13">
+        <f>(E23+E24)/2</f>
+        <v>1.6930555555555553</v>
+      </c>
+      <c r="G23" s="13">
+        <f>F23/2</f>
+        <v>0.84652777777777766</v>
+      </c>
+      <c r="H23" s="14">
+        <f>(DAY(G23)*24+HOUR(G23)+MINUTE(G23)/60+SECOND(G23)/3600)*PI()/180</f>
+        <v>0.35459272636351458</v>
+      </c>
+      <c r="I23" s="14">
+        <f>J13*SIN(H23)/A23</f>
+        <v>577.42304796386918</v>
+      </c>
+      <c r="J23" s="10">
+        <v>579.1</v>
+      </c>
+      <c r="K23" s="14">
+        <f>ABS(J23-I23)/J23</f>
+        <v>2.8957900813863621E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="6">
+        <v>9.5104166666666661</v>
+      </c>
+      <c r="D24" s="6">
+        <v>11.201388888888888</v>
+      </c>
+      <c r="E24" s="16">
+        <f>D24-C24</f>
         <v>1.6909722222222214</v>
       </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-    </row>
-    <row r="24" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+    </row>
+    <row r="25" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B26" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8"/>
-      <c r="B26" s="14">
-        <f>(H22-H18)/(J22-J18)</f>
+    <row r="27" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
+      <c r="B27" s="14">
+        <f>(H23-H19)/(J23-J19)</f>
         <v>2.7703638920541126E-4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">

--- a/衍射光栅.xlsx
+++ b/衍射光栅.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\Repos\fuck-UPE\大物实验\数据处理-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7BF7B4-1E25-456C-8020-D1DAFF0F3FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3ED6E7E-8878-472C-A9FB-D6B8045D398B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -596,7 +596,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
